--- a/RA_Operational_공고_2023-02-17.xlsx
+++ b/RA_Operational_공고_2023-02-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="238">
   <si>
     <t>업무</t>
   </si>
@@ -49,6 +49,21 @@
     <t>용역</t>
   </si>
   <si>
+    <t>20230227538-00</t>
+  </si>
+  <si>
+    <t>20230228715-00</t>
+  </si>
+  <si>
+    <t>20230228503-00</t>
+  </si>
+  <si>
+    <t>20230227690-00</t>
+  </si>
+  <si>
+    <t>20230228017-00</t>
+  </si>
+  <si>
     <t>20230226955-00</t>
   </si>
   <si>
@@ -70,9 +85,6 @@
     <t>20230222712-00</t>
   </si>
   <si>
-    <t>20230224255-00</t>
-  </si>
-  <si>
     <t>20230224472-00</t>
   </si>
   <si>
@@ -169,9 +181,6 @@
     <t>20230205616-00</t>
   </si>
   <si>
-    <t>20230207072-00</t>
-  </si>
-  <si>
     <t>20230206071-00</t>
   </si>
   <si>
@@ -184,15 +193,30 @@
     <t>20230130038-00</t>
   </si>
   <si>
+    <t>긴급</t>
+  </si>
+  <si>
     <t>일반</t>
   </si>
   <si>
-    <t>긴급</t>
-  </si>
-  <si>
     <t>변경</t>
   </si>
   <si>
+    <t>2023년 전라북도 출연기관 등 경영평가용역</t>
+  </si>
+  <si>
+    <t>2023년 북한정보 인공지능·빅데이터 분석시스템 운영 및 유지관리</t>
+  </si>
+  <si>
+    <t>기타특별회계 및 기금 성과분석 연구용역</t>
+  </si>
+  <si>
+    <t>2023년 재정데이터분석서비스 유지보수 사업</t>
+  </si>
+  <si>
+    <t>광역버스 회차 및 환승시설 시범사업 성과분석 연구 용역</t>
+  </si>
+  <si>
     <t>청렴수준 진단 및 청렴활동 지원 용역</t>
   </si>
   <si>
@@ -214,9 +238,6 @@
     <t>2023년 대구광역시 민간위탁사무 운영성과 평가 용역</t>
   </si>
   <si>
-    <t>IoT 기반 환경유해인자·건강영향 빅데이터 수집˙관리 연구 용역</t>
-  </si>
-  <si>
     <t>RWD 기반 의약품 성과 평가 연구용역</t>
   </si>
   <si>
@@ -313,9 +334,6 @@
     <t>국가식품클러스터 성과분석 및 발전방안 연구용역</t>
   </si>
   <si>
-    <t>관악구 빅데이터 과제 발굴 및 분석 용역 계약(긴급)</t>
-  </si>
-  <si>
     <t>전자파 리스크커뮤니케이션 체계 운영</t>
   </si>
   <si>
@@ -328,6 +346,18 @@
     <t>2023년 전라남도 출연기관 경영평가 용역</t>
   </si>
   <si>
+    <t>전라북도</t>
+  </si>
+  <si>
+    <t>조달청 서울지방조달청</t>
+  </si>
+  <si>
+    <t>부산광역시</t>
+  </si>
+  <si>
+    <t>국토교통부 대도시권광역교통위원회</t>
+  </si>
+  <si>
     <t>한국인터넷진흥원</t>
   </si>
   <si>
@@ -349,94 +379,91 @@
     <t>대구광역시</t>
   </si>
   <si>
+    <t>건강보험심사평가원</t>
+  </si>
+  <si>
+    <t>기상청</t>
+  </si>
+  <si>
+    <t>한국가스공사</t>
+  </si>
+  <si>
+    <t>한국원자력안전재단</t>
+  </si>
+  <si>
+    <t>조달청 대구지방조달청</t>
+  </si>
+  <si>
+    <t>서울특별시</t>
+  </si>
+  <si>
+    <t>한국환경공단</t>
+  </si>
+  <si>
+    <t>사단법인 대한축구협회</t>
+  </si>
+  <si>
+    <t>한전케이피에스주식회사</t>
+  </si>
+  <si>
+    <t>중소벤처기업진흥공단</t>
+  </si>
+  <si>
+    <t>서울특별시교육청 선일빅데이터고등학교</t>
+  </si>
+  <si>
+    <t>국민권익위원회 청렴연수원</t>
+  </si>
+  <si>
+    <t>서울대학교산학협력단</t>
+  </si>
+  <si>
+    <t>교육부</t>
+  </si>
+  <si>
+    <t>재단법인 서울시복지재단</t>
+  </si>
+  <si>
+    <t>광주광역시</t>
+  </si>
+  <si>
+    <t>조달청 인천지방조달청</t>
+  </si>
+  <si>
+    <t>경상북도교육청 경상북도교육청연구원</t>
+  </si>
+  <si>
+    <t>한국산업기술진흥원</t>
+  </si>
+  <si>
+    <t>환경부</t>
+  </si>
+  <si>
+    <t>보건복지부 국립재활원</t>
+  </si>
+  <si>
+    <t>제주특별자치도</t>
+  </si>
+  <si>
+    <t>질병관리청 국립보건연구원</t>
+  </si>
+  <si>
+    <t>산림청 국립수목원</t>
+  </si>
+  <si>
     <t>조달청</t>
   </si>
   <si>
-    <t>건강보험심사평가원</t>
-  </si>
-  <si>
-    <t>조달청 서울지방조달청</t>
-  </si>
-  <si>
-    <t>기상청</t>
-  </si>
-  <si>
-    <t>한국가스공사</t>
-  </si>
-  <si>
-    <t>한국원자력안전재단</t>
-  </si>
-  <si>
-    <t>조달청 대구지방조달청</t>
-  </si>
-  <si>
-    <t>서울특별시</t>
-  </si>
-  <si>
-    <t>한국환경공단</t>
-  </si>
-  <si>
-    <t>사단법인 대한축구협회</t>
-  </si>
-  <si>
-    <t>한전케이피에스주식회사</t>
-  </si>
-  <si>
-    <t>중소벤처기업진흥공단</t>
-  </si>
-  <si>
-    <t>서울특별시교육청 선일빅데이터고등학교</t>
-  </si>
-  <si>
-    <t>국민권익위원회 청렴연수원</t>
-  </si>
-  <si>
-    <t>서울대학교산학협력단</t>
-  </si>
-  <si>
-    <t>교육부</t>
-  </si>
-  <si>
-    <t>재단법인 서울시복지재단</t>
-  </si>
-  <si>
-    <t>광주광역시</t>
-  </si>
-  <si>
-    <t>조달청 인천지방조달청</t>
-  </si>
-  <si>
-    <t>경상북도교육청 경상북도교육청연구원</t>
-  </si>
-  <si>
-    <t>한국산업기술진흥원</t>
-  </si>
-  <si>
-    <t>환경부</t>
-  </si>
-  <si>
-    <t>보건복지부 국립재활원</t>
-  </si>
-  <si>
-    <t>제주특별자치도</t>
-  </si>
-  <si>
-    <t>질병관리청 국립보건연구원</t>
-  </si>
-  <si>
-    <t>산림청 국립수목원</t>
-  </si>
-  <si>
-    <t>서울특별시 관악구</t>
-  </si>
-  <si>
     <t>조달청 광주지방조달청</t>
   </si>
   <si>
     <t>전라남도</t>
   </si>
   <si>
-    <t>전북대학교 산학협력단</t>
+    <t>통일부</t>
+  </si>
+  <si>
+    <t>한국재정정보원</t>
   </si>
   <si>
     <t>한국지능정보사회진흥원</t>
@@ -457,36 +484,45 @@
     <t>제한(총액)협상에의한계약</t>
   </si>
   <si>
+    <t>수의(총액)</t>
+  </si>
+  <si>
     <t>일반(총액)협상에의한계약</t>
   </si>
   <si>
     <t>제한경쟁</t>
   </si>
   <si>
-    <t>수의(총액)</t>
-  </si>
-  <si>
     <t>제한(총액)규격가격동시</t>
   </si>
   <si>
     <t>제한(총액)</t>
   </si>
   <si>
+    <t>(2023/02/28 18:00)</t>
+  </si>
+  <si>
+    <t>(2023/02/28 10:00)</t>
+  </si>
+  <si>
+    <t>(2023/03/02 16:00)</t>
+  </si>
+  <si>
+    <t>(2023/03/08 10:00)</t>
+  </si>
+  <si>
+    <t>(2023/02/20 11:00)</t>
+  </si>
+  <si>
     <t>(-)</t>
   </si>
   <si>
     <t>(2023/02/27 10:00)</t>
   </si>
   <si>
-    <t>(2023/02/28 10:00)</t>
-  </si>
-  <si>
     <t>(2023/02/22 10:00)</t>
   </si>
   <si>
-    <t>(2023/02/17 11:00)</t>
-  </si>
-  <si>
     <t>(2023/02/23 10:00)</t>
   </si>
   <si>
@@ -529,9 +565,6 @@
     <t>(2023/03/03 16:00)</t>
   </si>
   <si>
-    <t>(2023/02/20 11:00)</t>
-  </si>
-  <si>
     <t>(2023/02/21 11:00)</t>
   </si>
   <si>
@@ -547,15 +580,27 @@
     <t>(2023/02/20 14:00)</t>
   </si>
   <si>
-    <t>(2023/02/17 16:00)</t>
-  </si>
-  <si>
     <t>(2023/02/21 10:00)</t>
   </si>
   <si>
     <t>(2023/02/21 17:00)</t>
   </si>
   <si>
+    <t>https://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20230227538&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=5</t>
+  </si>
+  <si>
+    <t>https://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20230228715&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=1</t>
+  </si>
+  <si>
+    <t>https://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20230228503&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=5</t>
+  </si>
+  <si>
+    <t>https://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20230227690&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=1</t>
+  </si>
+  <si>
+    <t>https://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20230228017&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=5</t>
+  </si>
+  <si>
     <t>https://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20230226955&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=5</t>
   </si>
   <si>
@@ -577,9 +622,6 @@
     <t>https://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20230222712&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=5</t>
   </si>
   <si>
-    <t>https://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20230224255&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=1</t>
-  </si>
-  <si>
     <t>https://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20230224472&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=5</t>
   </si>
   <si>
@@ -674,9 +716,6 @@
   </si>
   <si>
     <t>https://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20230205616&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=1</t>
-  </si>
-  <si>
-    <t>https://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20230207072&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=5</t>
   </si>
   <si>
     <t>https://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20230206071&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=1</t>
@@ -1063,7 +1102,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1112,28 +1151,28 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I2" s="2">
-        <v>44973.79930555556</v>
+        <v>44974.69652777778</v>
       </c>
       <c r="J2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1147,28 +1186,28 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="I3" s="2">
-        <v>44973.75833333333</v>
+        <v>44974.69375</v>
       </c>
       <c r="J3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1182,28 +1221,28 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H4" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I4" s="2">
-        <v>44973.73472222222</v>
+        <v>44974.66041666667</v>
       </c>
       <c r="J4" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1217,28 +1256,28 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="H5" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I5" s="2">
-        <v>44973.72638888889</v>
+        <v>44974.63194444445</v>
       </c>
       <c r="J5" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1252,28 +1291,28 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H6" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="I6" s="2">
-        <v>44973.69444444445</v>
+        <v>44974.56111111111</v>
       </c>
       <c r="J6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1287,28 +1326,28 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="I7" s="2">
-        <v>44973.45763888889</v>
+        <v>44973.79930555556</v>
       </c>
       <c r="J7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1322,28 +1361,28 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I8" s="2">
-        <v>44972.86180555556</v>
+        <v>44973.75833333333</v>
       </c>
       <c r="J8" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1357,28 +1396,28 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I9" s="2">
-        <v>44972.81736111111</v>
+        <v>44973.73472222222</v>
       </c>
       <c r="J9" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1392,28 +1431,28 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H10" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I10" s="2">
-        <v>44972.77847222222</v>
+        <v>44973.72638888889</v>
       </c>
       <c r="J10" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1427,28 +1466,28 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H11" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="I11" s="2">
-        <v>44972.62916666667</v>
+        <v>44973.69444444445</v>
       </c>
       <c r="J11" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1462,28 +1501,28 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="I12" s="2">
-        <v>44972.60694444444</v>
+        <v>44973.45763888889</v>
       </c>
       <c r="J12" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1497,28 +1536,28 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H13" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I13" s="2">
-        <v>44972.59027777778</v>
+        <v>44972.86180555556</v>
       </c>
       <c r="J13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1532,28 +1571,28 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="I14" s="2">
-        <v>44972.46597222222</v>
+        <v>44972.77847222222</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1567,28 +1606,28 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G15" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="H15" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="I15" s="2">
-        <v>44972.46041666667</v>
+        <v>44972.62916666667</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1602,28 +1641,28 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H16" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I16" s="2">
-        <v>44972.45208333333</v>
+        <v>44972.60694444444</v>
       </c>
       <c r="J16" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1637,28 +1676,28 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G17" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H17" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="I17" s="2">
-        <v>44971.59583333333</v>
+        <v>44972.59027777778</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1672,28 +1711,28 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G18" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H18" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="I18" s="2">
-        <v>44971.58472222222</v>
+        <v>44972.46597222222</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1707,28 +1746,28 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G19" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="H19" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I19" s="2">
-        <v>44970.79930555556</v>
+        <v>44972.46041666667</v>
       </c>
       <c r="J19" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1742,28 +1781,28 @@
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G20" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H20" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I20" s="2">
-        <v>44970.69166666667</v>
+        <v>44972.45208333333</v>
       </c>
       <c r="J20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1777,28 +1816,28 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G21" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H21" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I21" s="2">
-        <v>44970.67222222222</v>
+        <v>44971.59583333333</v>
       </c>
       <c r="J21" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1812,28 +1851,28 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H22" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I22" s="2">
-        <v>44970.39861111111</v>
+        <v>44971.58472222222</v>
       </c>
       <c r="J22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1847,28 +1886,28 @@
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="G23" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="H23" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="I23" s="2">
-        <v>44967.41388888889</v>
+        <v>44970.79930555556</v>
       </c>
       <c r="J23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1882,28 +1921,28 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G24" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H24" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I24" s="2">
-        <v>44966.63541666666</v>
+        <v>44970.69166666667</v>
       </c>
       <c r="J24" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1917,28 +1956,28 @@
         <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G25" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H25" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I25" s="2">
-        <v>44966.44513888889</v>
+        <v>44970.67222222222</v>
       </c>
       <c r="J25" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1952,28 +1991,28 @@
         <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="G26" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="H26" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="I26" s="2">
-        <v>44966.41875</v>
+        <v>44970.39861111111</v>
       </c>
       <c r="J26" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1987,28 +2026,28 @@
         <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="G27" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="H27" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I27" s="2">
-        <v>44966.33472222222</v>
+        <v>44967.41388888889</v>
       </c>
       <c r="J27" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2022,28 +2061,28 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G28" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H28" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="I28" s="2">
-        <v>44965.71805555555</v>
+        <v>44966.63541666666</v>
       </c>
       <c r="J28" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2057,28 +2096,28 @@
         <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G29" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="H29" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I29" s="2">
-        <v>44965.625</v>
+        <v>44966.44513888889</v>
       </c>
       <c r="J29" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2092,28 +2131,28 @@
         <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F30" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G30" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H30" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I30" s="2">
-        <v>44965.57430555556</v>
+        <v>44966.41875</v>
       </c>
       <c r="J30" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2127,28 +2166,28 @@
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G31" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H31" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I31" s="2">
-        <v>44965.49583333333</v>
+        <v>44966.33472222222</v>
       </c>
       <c r="J31" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2162,28 +2201,28 @@
         <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F32" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="G32" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="H32" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="I32" s="2">
-        <v>44965.47083333333</v>
+        <v>44965.71805555555</v>
       </c>
       <c r="J32" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2197,28 +2236,28 @@
         <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G33" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H33" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I33" s="2">
-        <v>44965.42916666667</v>
+        <v>44965.625</v>
       </c>
       <c r="J33" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2232,28 +2271,28 @@
         <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H34" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="I34" s="2">
-        <v>44965.42916666667</v>
+        <v>44965.57430555556</v>
       </c>
       <c r="J34" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2267,28 +2306,28 @@
         <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F35" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G35" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H35" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="I35" s="2">
-        <v>44964.76041666666</v>
+        <v>44965.49583333333</v>
       </c>
       <c r="J35" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2302,28 +2341,28 @@
         <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F36" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G36" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H36" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I36" s="2">
-        <v>44964.73402777778</v>
+        <v>44965.47083333333</v>
       </c>
       <c r="J36" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2337,28 +2376,28 @@
         <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F37" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="G37" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="H37" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I37" s="2">
-        <v>44964.61319444444</v>
+        <v>44965.42916666667</v>
       </c>
       <c r="J37" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2372,28 +2411,28 @@
         <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H38" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I38" s="2">
-        <v>44964.57291666666</v>
+        <v>44965.42916666667</v>
       </c>
       <c r="J38" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2407,28 +2446,28 @@
         <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G39" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H39" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="I39" s="2">
-        <v>44964.44375</v>
+        <v>44964.76041666666</v>
       </c>
       <c r="J39" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2442,28 +2481,28 @@
         <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F40" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G40" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H40" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I40" s="2">
-        <v>44964.44236111111</v>
+        <v>44964.73402777778</v>
       </c>
       <c r="J40" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2477,28 +2516,28 @@
         <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F41" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="G41" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="H41" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="I41" s="2">
-        <v>44963.88819444444</v>
+        <v>44964.61319444444</v>
       </c>
       <c r="J41" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2512,28 +2551,28 @@
         <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F42" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G42" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H42" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="I42" s="2">
-        <v>44963.63194444445</v>
+        <v>44964.57291666666</v>
       </c>
       <c r="J42" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2547,28 +2586,28 @@
         <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F43" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H43" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="I43" s="2">
-        <v>44963.57569444444</v>
+        <v>44964.44375</v>
       </c>
       <c r="J43" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2582,28 +2621,28 @@
         <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F44" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="G44" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="H44" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="I44" s="2">
-        <v>44963.47430555556</v>
+        <v>44964.44236111111</v>
       </c>
       <c r="J44" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2617,28 +2656,28 @@
         <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F45" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="G45" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H45" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="I45" s="2">
-        <v>44958.46736111111</v>
+        <v>44963.88819444444</v>
       </c>
       <c r="J45" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2652,28 +2691,133 @@
         <v>55</v>
       </c>
       <c r="D46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" t="s">
+        <v>153</v>
+      </c>
+      <c r="H46" t="s">
+        <v>155</v>
+      </c>
+      <c r="I46" s="2">
+        <v>44963.57569444444</v>
+      </c>
+      <c r="J46" t="s">
+        <v>188</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
         <v>56</v>
       </c>
-      <c r="E46" t="s">
-        <v>103</v>
-      </c>
-      <c r="F46" t="s">
-        <v>139</v>
-      </c>
-      <c r="G46" t="s">
-        <v>139</v>
-      </c>
-      <c r="H46" t="s">
-        <v>146</v>
-      </c>
-      <c r="I46" s="2">
+      <c r="D47" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" t="s">
+        <v>126</v>
+      </c>
+      <c r="H47" t="s">
+        <v>157</v>
+      </c>
+      <c r="I47" s="2">
+        <v>44963.47430555556</v>
+      </c>
+      <c r="J47" t="s">
+        <v>173</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" t="s">
+        <v>145</v>
+      </c>
+      <c r="G48" t="s">
+        <v>154</v>
+      </c>
+      <c r="H48" t="s">
+        <v>155</v>
+      </c>
+      <c r="I48" s="2">
+        <v>44958.46736111111</v>
+      </c>
+      <c r="J48" t="s">
+        <v>162</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" t="s">
+        <v>147</v>
+      </c>
+      <c r="H49" t="s">
+        <v>155</v>
+      </c>
+      <c r="I49" s="2">
         <v>44956.64652777778</v>
       </c>
-      <c r="J46" t="s">
-        <v>179</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>224</v>
+      <c r="J49" t="s">
+        <v>189</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2723,6 +2867,9 @@
     <hyperlink ref="K44" r:id="rId43"/>
     <hyperlink ref="K45" r:id="rId44"/>
     <hyperlink ref="K46" r:id="rId45"/>
+    <hyperlink ref="K47" r:id="rId46"/>
+    <hyperlink ref="K48" r:id="rId47"/>
+    <hyperlink ref="K49" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
